--- a/backend/fms_core/tests/test_services/templates/Experiment_run_illumina_v3_14_0.xlsx
+++ b/backend/fms_core/tests/test_services/templates/Experiment_run_illumina_v3_14_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ckostiw/C3G/repos/freezeman/backend/fms_core/tests/test_services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26197E4-5A2D-3844-B3A6-B6E6BCA24458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2316009F-C421-E644-BEE0-988F578E4B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="69000" yWindow="-5500" windowWidth="31460" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,6 +34,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>MGI Flowcell Barcode</t>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="441">
   <si>
     <t>Experiment Submission Template</t>
   </si>
@@ -1365,6 +1366,9 @@
   </si>
   <si>
     <t>ER_Pooled_DNA</t>
+  </si>
+  <si>
+    <t>Experiment Run Info Test</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1386,25 +1390,37 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1556,11 +1572,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1795,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1905,10 +1921,10 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1988,7 +2004,9 @@
       <c r="E11" s="11">
         <v>44643</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>440</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>437</v>
       </c>
@@ -4621,7 +4639,7 @@
       <c r="A5" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>439</v>
       </c>
       <c r="C5" s="16" t="s">
